--- a/RoomsExcelSpreadsheet.xlsx
+++ b/RoomsExcelSpreadsheet.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoomsExcelSpreadsheet" sheetId="1" r:id="rId1"/>
-    <sheet name="BuildingsExcelSpreadsheet_TabDe" sheetId="2" r:id="rId2"/>
+    <sheet name="BuildingsExcelSpreadsheet" sheetId="2" r:id="rId2"/>
     <sheet name="Augmentation" sheetId="3" r:id="rId3"/>
     <sheet name="SettlementBaseMutators" sheetId="4" r:id="rId4"/>
+    <sheet name="Qualities" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="roomCSV" localSheetId="2">Augmentation!$A$2:$I$2</definedName>
     <definedName name="roomCSV" localSheetId="0">RoomsExcelSpreadsheet!$A$2:$S$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="791">
   <si>
     <t>Name</t>
   </si>
@@ -1777,13 +1777,902 @@
   </si>
   <si>
     <t>Metropolis</t>
+  </si>
+  <si>
+    <t>Magic Items</t>
+  </si>
+  <si>
+    <t>BaseValuePercentage</t>
+  </si>
+  <si>
+    <t>SpellcastingModifier</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Advantage/Disadvantage/Government Flag</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Autocracy</t>
+  </si>
+  <si>
+    <t>A single individual chosen by the people rules the community. This leader's actual title can vary—mayor, burgomaster, lord, or even royal titles like duke or prince are common. (No modifiers)</t>
+  </si>
+  <si>
+    <t>Colonial</t>
+  </si>
+  <si>
+    <t>The settlement's ruler is a figure-head for a distant colonial power: a magistrate, governor, or minor landed noble. He or she may have limited autonomy in running the colony, but ultimately answers to the colony's founding power. Colonies are typically seen as resources for their founding government, not having much political power or influence. The colony's government is more concerned with making sure trade with and taxes paid to the homeland flow efficiently then the welfare of the colony's inhabitants.</t>
+  </si>
+  <si>
+    <t>Council</t>
+  </si>
+  <si>
+    <t>A group of councilors, often composed of guild masters or members of the aristocracy, leads the settlement.</t>
+  </si>
+  <si>
+    <t>Dynasty</t>
+  </si>
+  <si>
+    <t>Power is concentrated in the hands of a single family or a small group of closely related, inter-married families. These elites have ruled the settlement since its inception, and manipulated the power structure to ensure they remain in power.</t>
+  </si>
+  <si>
+    <t>Magical</t>
+  </si>
+  <si>
+    <t>An individual or group with potent magical power, such as A high priest, an archwizard, or even a magical monster, leads the community.</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>The settlement is an armed garrison that exists solely to serve the military forces deployed there. It may be a massive military base and training complex, a wilderness fortress or a keep that patrols a major trade route, depending on its size. The settlement may even be an ordinary town or city that recently fell under military rule after a coup or uprising that led to the declaration of martial law.</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>The community's ruler is a single individual who either seized control or inherited command of the settlement.</t>
+  </si>
+  <si>
+    <t>Secret Syndicate</t>
+  </si>
+  <si>
+    <t>An unofficial or illegal group like a thieves' guild rules the settlement—they may use a puppet leader to maintain secrecy, but the group members pull the strings in town.</t>
+  </si>
+  <si>
+    <t>Theocracy</t>
+  </si>
+  <si>
+    <t>The settlement is ruled by its patron faith: secular and theological power are one and the same here. Priests, clerics and oracles decide every facet of life in the settlement.</t>
+  </si>
+  <si>
+    <t>Double Alignment Bonuses, +1 Quality Available</t>
+  </si>
+  <si>
+    <t>Plutocracy</t>
+  </si>
+  <si>
+    <t>The wealthiest and most influential merchants rule this settlement. Wealth is seen as a sign of good character, ethics and even divine favor. The poor have few, if any rights that the wealthy are bound to respect.</t>
+  </si>
+  <si>
+    <t>This idealistic settlement was founded upon lofty ideals. In theory at least, all members of the community have a voice in its government, and a settlement council meets to ensure the ideals of the community are followed.</t>
+  </si>
+  <si>
+    <t>Utopian Experiment</t>
+  </si>
+  <si>
+    <t>Abundant</t>
+  </si>
+  <si>
+    <t>The settlement has access to extraordinary natural resources: rich farmland, a deep lake, excellent hunting grounds nearby or even a convenient source of magical sustenance. The local food surplus makes the settlement a major exporting hub, and increases the standard of living for its inhabitants.</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>Reduce the purchase price of most forms of locally-grown food and livestock by 25% or more.</t>
+  </si>
+  <si>
+    <t>Abstinent</t>
+  </si>
+  <si>
+    <t>The settlement religious or moral convictions force it to deny some of the world's more common vices. The settlement prohibits a common vice: usually alcohol is prohibited, but other abstinent settlements might ban stronger drugs, tobacco, prostitution, or even ‘indulgent' foods like fine pastries, meat, or similar.</t>
+  </si>
+  <si>
+    <t>Lawful Only</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>The settlement possesses a school, training facility, or university of great renown.</t>
+  </si>
+  <si>
+    <t>Animal Polyglot</t>
+  </si>
+  <si>
+    <t>Similar to the Magical Polyglot effect (described later in this PDF), a magical aura hangs over the settlement. All creatures of the Animal type gain the ability to speak and think while within the settlement's borders. Animals act as if their INT scores were 6, and gain ability to speak Common; they lose these benefits as soon as they pass the settlement's borders. There are likely to be few butcher shops within the settlement's borders….</t>
+  </si>
+  <si>
+    <t>Add settlement's Lore modifier to Handle Animal Checks</t>
+  </si>
+  <si>
+    <t>Anthropomorphizing</t>
+  </si>
+  <si>
+    <t>This settlement is a haven for those with fur and feathers. Fascinatingly inhuman Anthros walk the streets; the settlements are powerful boar-men or lion anthros; its prostitutes are glamourous bird or cat-women, its wizards a hybrid between ferret and man, and so on….</t>
+  </si>
+  <si>
+    <t>Requires Racial Enclave, +1 Spellcastingn for Transmutation Spells only, Non-anthro characters can become both Anthros and citizens by undergoing a day-long religious ritual led by the settlements druids or clerics. The ritual requires the donation of goods or treasure to the community worth at least 5,000 gp. At the end of the ritual, the supplicant loses his or her original racial traits and becomes an Anthro. Select an Order and spend build points as normal to build an Anthro character.</t>
+  </si>
+  <si>
+    <t>Artist's Colony</t>
+  </si>
+  <si>
+    <t>The settlement is renowned for the excellence of its local artists, performers and craftsfolk.</t>
+  </si>
+  <si>
+    <t>Add Productivity modifier to all craft checks</t>
+  </si>
+  <si>
+    <t>Asylum</t>
+  </si>
+  <si>
+    <t>The settlement is host to an infamous madhouse or asylum (or perhaps a prison, gaol or notorious workhouse). The presence of these dangerous, mad souls has hardened the townsfolk, making them suspicious of strangers and paranoid about the possibility of an escape or other tragedy.</t>
+  </si>
+  <si>
+    <t>City of the Dead</t>
+  </si>
+  <si>
+    <t>The settlement abuts a massive, historically significant graveyard, massive tomb or mausoleum complex. Its monuments are well maintained, and a powerful ancestor cult exists within the city, either in replacement or addition to traditional religions.</t>
+  </si>
+  <si>
+    <t>Add Lore modifier to Knowledge History &amp; Knowledge Nobility checks</t>
+  </si>
+  <si>
+    <t>Cruel Watch</t>
+  </si>
+  <si>
+    <t>The settlement's civic watch or police force is infamous for its brutality, effectiveness, cruelty and corruption.</t>
+  </si>
+  <si>
+    <t>Decadent</t>
+  </si>
+  <si>
+    <t>The settlement's vast wealth and proud, ancient heritage has made it a haven for corruption and sin.</t>
+  </si>
+  <si>
+    <t>Evil Only</t>
+  </si>
+  <si>
+    <t>The settlement is strategically situated to make it easier to defend, giving its inhabitants confidence and making the settlement a major local trade hub.</t>
+  </si>
+  <si>
+    <t>Defensible</t>
+  </si>
+  <si>
+    <t>Desecrate</t>
+  </si>
+  <si>
+    <t>The entire settlement is under the effects of a permanent desecrate effect of incredible power. This effect can be suppressed in small areas within the settlement. The caster level for the effect is equal to 20 + the settlement's size modifier, for the purpose of dispelling.</t>
+  </si>
+  <si>
+    <t>The entire settlement is under the effects of a permanent hallow effect of incredible power. This effect can be suppressed in small areas within the settlement. The caster level for the effect is equal to 20 + the settlement's size modifier, for the purpose of dispelling.</t>
+  </si>
+  <si>
+    <t>Hallow</t>
+  </si>
+  <si>
+    <t>Good Only</t>
+  </si>
+  <si>
+    <t>Eldritch</t>
+  </si>
+  <si>
+    <t>The town has a strange and unnatural air, and is a popular place for sorcerers and oracles.</t>
+  </si>
+  <si>
+    <t>+2 Spellcasting Levels for Divination and Necromancy Spells Only</t>
+  </si>
+  <si>
+    <t>Famed Breeders</t>
+  </si>
+  <si>
+    <t>The settlement is known for the excellent quality of the animals bred there, from the mundane (horses, mules, cattle, pigs) to the exotic (talking tigers, Pegasai, griffons). People come from far and wide to purchase livestock, draft animals, mounts and animal companions.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increase </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Base Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Base Purchase Limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by +20% when dealing with mounts and associated gear. Characters can purchase mounts or live stock in the settlement at a +10% discount.</t>
+    </r>
+  </si>
+  <si>
+    <t>Financial Center</t>
+  </si>
+  <si>
+    <t>This settlement is home to powerful banks, mints, trading houses, currency exchanges and other powerful financial and mercantile organizations.</t>
+  </si>
+  <si>
+    <t>Free City</t>
+  </si>
+  <si>
+    <t>The city's libertarian laws make it a haven for fugitives and outcasts of all kinds, from runaway children, serfs who escaped their lord's lands, criminals and escaped slaves alike. Foreign adventurers and bounty hunters cannot arrest or capture fugitives within the settlement's borders.</t>
+  </si>
+  <si>
+    <t>Chaotic only</t>
+  </si>
+  <si>
+    <t>Gambling</t>
+  </si>
+  <si>
+    <t>Casinos, gaming houses, opium dens and bordellos are all common here, and serve as the town's major industry.</t>
+  </si>
+  <si>
+    <t>un-Chaotic only</t>
+  </si>
+  <si>
+    <t>God Ruled</t>
+  </si>
+  <si>
+    <t>The settlement has no real government; instead it is ruled by religious codes and omens. Gods or other powerful spiritual beings or outsiders intervene directly in the settlement's politics and daily life. Ordinary citizens are possessed by spirits to speak decrees, unmistakable oracles appear as flaming messages written on walls or in the sky, or perhaps each and every citizen has prophetic dreams that tell them what they must do in the coming day for the settlement to thrive.</t>
+  </si>
+  <si>
+    <t>Good Roads</t>
+  </si>
+  <si>
+    <t>The settlement has an extensive road network. These roads are well-maintained and allow for quick movement of troops and merchandise.</t>
+  </si>
+  <si>
+    <t>Guilds</t>
+  </si>
+  <si>
+    <t>A variety of trade and mercantile guilds control the town's industry and trade. These guilds are highly specialized (a printer's guild, an eggler's guild, a swordsmith's guild, a diamond cutter's guild,ect), and usually semi-hereditary, with children following their parents into the guild.</t>
+  </si>
+  <si>
+    <t>Holy Site</t>
+  </si>
+  <si>
+    <t>The settlement hosts a shrine, temple, or landmark with great significance to one or more religions. The settlement has a higher percentage of divine spellcasters in its population.</t>
+  </si>
+  <si>
+    <t>Insular</t>
+  </si>
+  <si>
+    <t>The settlement is isolated, perhaps physically or even spiritually. Its citizens are fiercely loyal to one another.</t>
+  </si>
+  <si>
+    <t>Legendary Marketplace</t>
+  </si>
+  <si>
+    <t>The settlement is justly famed for its markets: almost anything may be for sale here!</t>
+  </si>
+  <si>
+    <t>Living Forest</t>
+  </si>
+  <si>
+    <t>This settlement is a magical place, carved from the living heart of an ancient forest. The trees form themselves into homes, and branches bend to provide the settlement's inhabitants with food, in the form of magical, druid-tended fruits and berries.</t>
+  </si>
+  <si>
+    <t>Spellcasting is +4 Levels for druid spells only</t>
+  </si>
+  <si>
+    <t>Magically Attuned</t>
+  </si>
+  <si>
+    <t>The settlement is a haven for spellcasters due to its location; for example, it may lie at the convergence of multiple ley lines or near a well-known magical site.</t>
+  </si>
+  <si>
+    <t>Magical Polyglot</t>
+  </si>
+  <si>
+    <t>This permanent magical effect is similar to the tongues spell, and has no effect on written language, only the words spoken by the settlement's inhabitants.</t>
+  </si>
+  <si>
+    <t>The settlement is blessed with a magical aura that allows all sentient creatures within its borders to understand one another as if they shared a common language.</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>The settlement is known for its dramatic, sweeping architecture, monumental statuary and is built to a scale alien to most Medium size humanoids. Perhaps the settlement was once a domain of giants, or simply a human metropolis hewn to an epic scale for the sake of grandeur.</t>
+  </si>
+  <si>
+    <t>The entire settlement can move, albeit slowly, not much faster than an average man could walk. Perhaps it floats on a cushion of magical air, hundreds of feet above the landscape, is a fortress- castle growing from the back of some impossibly large creature, or is some kind of enormous steampunk or magi-tech tank. This city is designed to patrol its kingdom or territory, responding to threats and offering the city's defenses to those in need.</t>
+  </si>
+  <si>
+    <t>Mobile: Frontlines</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increase the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Base Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Purchase Limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the settlement by 25% when trading weapons and armor.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mobile: Sanctuary</t>
+  </si>
+  <si>
+    <t>This mobile settlement is designed to retreat from danger, moving to a safer location when threatened by natural disasters, invasion or famine threatens.</t>
+  </si>
+  <si>
+    <t>Morally Permissive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divine indulgence or perhaps just a corrupt church selling indulgences has made this settlement famous (or infamous) for its lax morals. </t>
+  </si>
+  <si>
+    <t>Select 1d4+1 acts that would normally be considered sinful or immoral; these acts are not crimes or sins within the settlement, and committing these acts does not violate a paladin or cleric's moral code, so long as the offense is limited to within the settlement's borders.</t>
+  </si>
+  <si>
+    <t>Notorious</t>
+  </si>
+  <si>
+    <t>The settlement has a reputation (deserved or not) for being a den of iniquity. Thieves, rogues, and cutthroats are much more common here.</t>
+  </si>
+  <si>
+    <t>Peacebonding</t>
+  </si>
+  <si>
+    <t>By local law, any weapon larger than a dagger and all wands and rods must either be peacebound or stored at the local sherrif's office or jail (at the settlement's option) for the duration of the visit. Peacebonding a weapon involves winding a colored cord tightly around the weapon and its scabbard, and then impressing the local seal in wax. Removing the peacebond requires a full round action before the item can be drawn. (Disable Device DC 12 to untangle the bond as a move equivalent action; bond hp 5, no hardness)</t>
+  </si>
+  <si>
+    <t>The settlement simply isn't always there! This magical settlement might only appear in the moonlight, appear out of the mist on particularly holy or infamous dates, or only appear in this plane during thunderstorms or on particularly hot days. At other times, the settlement simply doesn't exist on this plane; powerful, plane-crossing magic is required to access the settlement outside of the ‘proper' time. The highly magical settlement is insular and clannish as a result of its isolation from the outside world.</t>
+  </si>
+  <si>
+    <t>Phantasmal</t>
+  </si>
+  <si>
+    <t>Spellcasting is +2 levels for planar, conjuration spells</t>
+  </si>
+  <si>
+    <t>Pious</t>
+  </si>
+  <si>
+    <t>The settlement is known for its inhabitants' good manners, friendly spirit, and deep devotion to a deity (this deity must be of the same alignment as the community).</t>
+  </si>
+  <si>
+    <t>Any faith more than one alignment step different than the community's official religion is at best unwelcome and at worst outlawed—obvious worshipers of an outlawed deity must pay 150% of the normal price for goods and services and may face mockery, insult, or even violence)</t>
+  </si>
+  <si>
+    <t>Planar Crossroads</t>
+  </si>
+  <si>
+    <t>Natural or artificial planar gates near the settlement make it a cross-roads for planar travel. Creatures from across the multiverse, both malevolent and benign, can be found here, as can their artifacts.</t>
+  </si>
+  <si>
+    <t>The Planar Crossroads settlement is the point of origin for many breed of monstrous player characters. Reduce the ECL of any monstrous player race if that race has its origin in this settlement, making heroic versions of these creatures more common in the region.</t>
+  </si>
+  <si>
+    <t>Planned Community</t>
+  </si>
+  <si>
+    <t>The community's design was determined in advance, every detail planned out before the first keystone was laid. Streets are wide, straight and laid out on an orderly grid, neighborhoods and districts are segregated by purpose, as are the living quarters of the city's inhabitants.</t>
+  </si>
+  <si>
+    <t>Pocket Universe</t>
+  </si>
+  <si>
+    <t>Thanks to a magical fold in space and time, the settlement exists in a place far too small to sustain it. A sleepy hamlet might be found in an old mansion's disused pantry, a huge fortress might hide the space between two old oaks, or a planar metropolis might be contained within a single cramped alley of a much less important city-state.</t>
+  </si>
+  <si>
+    <t>Depending on the nature of the settlement and its relationship with the outside world, the settlement might be impossible to find. It may skill checks to even find the entrance to the settlement: usually a DC 20 Knowledge (local) or Knowledge (the planes) check. The settlement's size modifier is applied to this check, albeit inverted. After all, it's easier to find a Metropolis (DC 16) than a Thorpe (DC 24).</t>
+  </si>
+  <si>
+    <t>Population Surge</t>
+  </si>
+  <si>
+    <t>This settlement is home to a greater than usual percentage of children, making it energetic and lively.</t>
+  </si>
+  <si>
+    <t>Prosperous</t>
+  </si>
+  <si>
+    <t>The settlement is a popular hub for trade. Merchants are wealthy and the citizens live well.</t>
+  </si>
+  <si>
+    <t>Racially Intolerant</t>
+  </si>
+  <si>
+    <t>Members of the unwelcome race or races must pay 150% of the normal price for goods and services and may face mockery, insult, or even violence</t>
+  </si>
+  <si>
+    <t>The community is prejudiced against one or more races, which are listed in parentheses.</t>
+  </si>
+  <si>
+    <t>Racial Enclave</t>
+  </si>
+  <si>
+    <t>The settlement is dominated by a single race: a pleasant halfling farming community, an elven capitol, a collection of half-orc yurts on the open plains, ect.</t>
+  </si>
+  <si>
+    <t>Members of one or more races, chosen when the settlement is founded, is especially welcome in the tight-knit and homogeneous settlement. Members of this race can purchase goods and services in the settlement at a 25% discount.</t>
+  </si>
+  <si>
+    <t>Resettled Ruins</t>
+  </si>
+  <si>
+    <t>The settlement is built amid the ruins of a more ancient structure. The settlement might be little more than a collection of tents and yurts erected in ruined plazas, or a thriving metropolis whose stones were recycled from long-forgotten temples and fortresses. While ruins provide a ready source of building materials, near-by dungeons to plunder and ancient artifacts to explore, they might also provide a hiding place for modern dangers or old curses.</t>
+  </si>
+  <si>
+    <t>If a buyer rolls a natural one on any Appraise or Diplomacy check made to examine or purchase a locally bought magic item, that item is always cursed.</t>
+  </si>
+  <si>
+    <t>Religious Tolerance</t>
+  </si>
+  <si>
+    <t>The settlement is known for its widespread religious tolerance, and many faiths have temples, cathedrals or monasteries here. Religious debates in the public square are common.</t>
+  </si>
+  <si>
+    <t>Romantic</t>
+  </si>
+  <si>
+    <t>The settlement's inhabitants are renowned for their stunning beauty and charm, and the location has been made famous in dozens of romantic songs, poems and bawdy limericks. Affairs of the heart are common here, among the town's hotblooded, lusty inhabitants.</t>
+  </si>
+  <si>
+    <t>Royal Accommodations</t>
+  </si>
+  <si>
+    <t>One or more members of a royal dynasty call the settlement home. As such, security is extremely tight, and the local economy has taken flight, as merchants catering to the nobility have sprung up.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increase the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Purchase Price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of high quality or luxury items, such as jewelry, fine clothes or food, entertainment, weapons and all magical items purchased in the settlement by +10% due to widespread inflation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rumormongering Citizens</t>
+  </si>
+  <si>
+    <t>The settlement's citizens are nosy and gossipy to a fault—very little happens in the settlement that no one knows about.</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>The settlement, no matter its size, has never lost its sleepy, small-town atmosphere. The settlement sprawls across a wide, mostly open area, and despite the distances between homes and buildings, neighbors look out for one another.</t>
+  </si>
+  <si>
+    <t>Sacred Animals</t>
+  </si>
+  <si>
+    <t>In this settlement there is a great taboo (punishable by death, exile or other severe penance) about killing a particular breed of beast. Depending on the settlement, the sacred animal might be innocuous (house cats, ravens), irritating and mischievous (monkeys) or a stubborn hazard on the roads (horses, cattle). The animals have free run of the settlement.</t>
+  </si>
+  <si>
+    <t>Sexist</t>
+  </si>
+  <si>
+    <t>The settlement's laws have completely disenfranchised one gender or the other: the oppressed sex has no more legal rights than a pet or a slave, and cannot buy property. While within the settlement, members of the oppressed gender cannot legally make purchases of items worth more than 5 gp, and are usually ignored by the settlement's inhabitants, and may suffer mockery, violence or legal persecution.</t>
+  </si>
+  <si>
+    <t>Disadvantage</t>
+  </si>
+  <si>
+    <t>Slumbering Monster</t>
+  </si>
+  <si>
+    <t>The settlement is home to some form of powerful and ancient monster- a slumbering behemoth, a dark god imprisoned by magical means, an ancient war-robot kept in stasis, or some other, currently inert threat. The inhabitants of the settlement expend vast effort keeping their monstrous prisoner contained, and by doing so, they have developed an impressive mastery of arcana.</t>
+  </si>
+  <si>
+    <t>At the Gamemasters discretion, the slumbering monster might be awakened. Doing so removes this quality, and afflicts the settlement with the Hunted disadvantage instead. The slumbering monster must either be destroyed or re-imprisoned by PC actions to restore this quality to the settlement.</t>
+  </si>
+  <si>
+    <t>Smallfolk Settlement</t>
+  </si>
+  <si>
+    <t>This settlement is designed for the comfort of a mostly gnome or halfling population. Its doors and ceilings are built for the comfort of the smaller races, and can be absolute murder on the foreheads of taller humanoids. Everything in the settlement, from furniture to forks, is sized for small creatures.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Medium-sized and larger creatures treat the Settlement's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Society</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistics as a penalty due to their difficulty in maneuvering or sneaking around in the miniature Settlement. Small or smaller creatures treat the Settlement's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Society</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistics normally.</t>
+    </r>
+  </si>
+  <si>
+    <t>Strategic Location</t>
+  </si>
+  <si>
+    <t>The settlement sits at an important crossroads or alongside a deepwater port, or it serves as a barrier to a pass or bridge</t>
+  </si>
+  <si>
+    <t>Superstitious</t>
+  </si>
+  <si>
+    <t>The community has a deep and abiding fear of magic and the unexplained, but this fear has caused its citizens to become more supportive and loyal to each other and their settlement.</t>
+  </si>
+  <si>
+    <t>Theraputic</t>
+  </si>
+  <si>
+    <t>The settlement is known for its minor healing properties- medicinal hot springs, clean, invigorating mountain air, a plethora of locally grown healing herbs and fruits, or perhaps some divine blessing. Whatever the reason, hospitals, nurseries, retreats and sanitariums are common within the settlement.</t>
+  </si>
+  <si>
+    <t>Heal checks made within the settlement's borders also receive the settlement's Lore modifier if positive.</t>
+  </si>
+  <si>
+    <t>Trading Post</t>
+  </si>
+  <si>
+    <t>Heal checks made within the settlement's borders also receive the settlement's Lore modifier if positive.The settlement's primary purpose is trade. Merchants and buyers from all over the world can be found within the settlement.</t>
+  </si>
+  <si>
+    <t>Tourist Attraction</t>
+  </si>
+  <si>
+    <t>The settlement possesses some sort of landmark or event that draws visitors from far and wide.</t>
+  </si>
+  <si>
+    <t>Unaging</t>
+  </si>
+  <si>
+    <t>The settlement's magical aura prevents those within its borders from aging. They do not suffer the ravages of time, and do not physically age. Usually, several kibbutz or schools near the settlement, but not within its borders are established, to allow the community's children to age to adulthood before they take their unchanging place in the settlement's immortal society.</t>
+  </si>
+  <si>
+    <t>Undercity</t>
+  </si>
+  <si>
+    <t>The settlement is built atop a dangerous subterranean structure, filled with monsters and a haven for criminals and outcasts. This under-city might be a massive sewer system, disused railway or subway tunnels, ruined and forgotten basements or dungeons, or a nearby mine or natural cavern system, perhaps even one that descends miles beneath the earth.</t>
+  </si>
+  <si>
+    <t>Unholy Site</t>
+  </si>
+  <si>
+    <t>The settlement serves as an unholy site for an evil god or philosophy. Worshipers of the evil deity flock to this settlement.</t>
+  </si>
+  <si>
+    <t>Untamed</t>
+  </si>
+  <si>
+    <t>The area around the settlement is still mostly untainted, unclaimed wilderness. This settlement may be a remote logging village, a trading post sprung up around a desert oasis or a small mountain keep, for instance.</t>
+  </si>
+  <si>
+    <t>Roll on wilderness chart for all random encounters - the pelts of slain beasts are twice as valuable</t>
+  </si>
+  <si>
+    <t>Well Educated</t>
+  </si>
+  <si>
+    <t>The settlement's inhabitants are incredibly well educated and known for their sharp wits.</t>
+  </si>
+  <si>
+    <t>Anarchy</t>
+  </si>
+  <si>
+    <t>The settlement has no leaders—this type of community is often short-lived and dangerous.</t>
+  </si>
+  <si>
+    <t>Atheistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The gods have abandoned the settlement. </t>
+  </si>
+  <si>
+    <t>This effect is identical to Magical Dead Zone (below), but only affects divine magic. Outsiders cannot be summoned anywhere within the borders of the settlement, by any means.</t>
+  </si>
+  <si>
+    <t>Bureaucratic Nightmare</t>
+  </si>
+  <si>
+    <t>The settlement is a nightmarish, confusing and frustrating maze of red tape, official paperwork and petty tyrants in positions of minor power, who relish enforcing all the useless little rules.</t>
+  </si>
+  <si>
+    <t>All financial transactions in the settlement require a successful DC 10 Diplomacy check. If the check is unsuccessful, the character has broken some settlement law, and must pay a fine of 5 GP x his character level. If the check result is a natural 1, the offense is ‘particularly heinous' - In addition to a double fine, the character is sentanced to the stocks for 1d2 days.</t>
+  </si>
+  <si>
+    <t>Cursed</t>
+  </si>
+  <si>
+    <t>Some form of curse afflicts the city. Its citizens might be prone to violence or suffer ill luck, or they could be plagued by an infestation of pests.</t>
+  </si>
+  <si>
+    <t>Fascistic</t>
+  </si>
+  <si>
+    <t>Hunted</t>
+  </si>
+  <si>
+    <t>The settlement is governed by a totalitarian regime. Sadistic and legally all-powerful soldiers walk the streets, enforcing the settlement's brutal laws. Outsiders are mistrusted and undesirables often simply disappear.</t>
+  </si>
+  <si>
+    <t>A powerful group or monster uses the city as its hunting ground. Citizens live in fear and avoid going out on the streets unless necessary.</t>
+  </si>
+  <si>
+    <t>Ignorant</t>
+  </si>
+  <si>
+    <t>The people of this town are uneducated, dull-witted and worse, they consider their ignorance to be an admirable quality.</t>
+  </si>
+  <si>
+    <t>Improverished</t>
+  </si>
+  <si>
+    <t>Because of any number of factors, the settlement is destitute. Poverty, famine, and disease run rampant.</t>
+  </si>
+  <si>
+    <t>Magically Deadened</t>
+  </si>
+  <si>
+    <t>For some reason, the magic in this region is weak. Local leylines are warped and the magical eco-system is fragile.</t>
+  </si>
+  <si>
+    <t>Magical Dead Zone</t>
+  </si>
+  <si>
+    <t>There is no magic here. Spells do not function, and the entire settlement is a dead magic area, as described in the planar traits chapter of the Pathfinder Game Mastery Guide.</t>
+  </si>
+  <si>
+    <t>Also Magically Deadened</t>
+  </si>
+  <si>
+    <t>Mutagenic</t>
+  </si>
+  <si>
+    <t>Strange energies or pollutants staining the area make this place a haven for deformed and superhuman freaks. Mutagenic vapors fill the sky, making sunsets strangely colored and eerily vibrant, or strange chemicals have tainted the ground water, or perhaps mutation causing crystals are found in the bedrock beneath the settlement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spending 72 Hours here subjects you to an automatic </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">waters of lamathsu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spell, with an increasing DC of +1 (and another test) each week thereafter.</t>
+    </r>
+  </si>
+  <si>
+    <t>The community is suffering from a protracted contagion or malady.</t>
+  </si>
+  <si>
+    <t>Plagued</t>
+  </si>
+  <si>
+    <t>5% chance of contracting the disease per day in town</t>
+  </si>
+  <si>
+    <t>Hyperinflation</t>
+  </si>
+  <si>
+    <t>Common to boom towns sprung up around a rich mining camp or profitable dungeon, and settlements undergoing a revolution or military junta alike, this settlement's economy is out of control.</t>
+  </si>
+  <si>
+    <t>20% chance items sold are actually broken counterfeits</t>
+  </si>
+  <si>
+    <t>Soul Crushing</t>
+  </si>
+  <si>
+    <t>The settlement has an oppressive, frightening atmosphere. Its architecture is eerie and seems somehow wrong or corrupt. The people are strange and furtive.</t>
+  </si>
+  <si>
+    <t>Anyone who spends at least 24 hours within the settlement suffers a -2 penalty on WILL Saves for as long as they remain in the area and for 24 hours after leaving the area.</t>
+  </si>
+  <si>
+    <t>Polluted</t>
+  </si>
+  <si>
+    <t>The settlement's magical or high-tech industry has stained the sky with sickly grey smog, poisoned the waters with dark slime and made the ground less fertile. Sickness and misery abound.</t>
+  </si>
+  <si>
+    <t>Anyone who spends at least 24 hours within the settlement suffers a -4 penalty on FORT Saves made to resist disease for as long as they remain within 5 miles of the settlement and for 1d4+1 days after leaving the area (or until they receive any amount of magical healing while out of the polluted region).</t>
+  </si>
+  <si>
+    <t>Wild Magic Zone</t>
+  </si>
+  <si>
+    <t>The settlement is built over an area of wild and unpredictable magic. The entire settlement is considered a wild magic area, as described in the planar traits chapter of the Pathfinder Game Mastery Guide. Magical beings and spellcasters tend to avoid this dangerous township.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1809,6 +2698,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7153,7 +8050,7 @@
   <dimension ref="A1:AC79"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14303,8 +15200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14638,4 +15535,4262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>569</v>
+      </c>
+      <c r="L1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N1" t="s">
+        <v>570</v>
+      </c>
+      <c r="O1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-4</v>
+      </c>
+      <c r="I5">
+        <v>-4</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C10" t="s">
+        <v>722</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C11" t="s">
+        <v>573</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>756</v>
+      </c>
+      <c r="B12" t="s">
+        <v>757</v>
+      </c>
+      <c r="C12" t="s">
+        <v>722</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" t="s">
+        <v>618</v>
+      </c>
+      <c r="C13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>-2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>-2</v>
+      </c>
+      <c r="G15">
+        <v>-2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" t="s">
+        <v>621</v>
+      </c>
+      <c r="C16" t="s">
+        <v>599</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>-3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>-2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>759</v>
+      </c>
+      <c r="B17" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>622</v>
+      </c>
+      <c r="B18" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" t="s">
+        <v>599</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>125</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>625</v>
+      </c>
+      <c r="C19" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+      <c r="J19">
+        <v>-10</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C20" t="s">
+        <v>599</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>580</v>
+      </c>
+      <c r="B21" t="s">
+        <v>581</v>
+      </c>
+      <c r="C21" t="s">
+        <v>573</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>-2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>632</v>
+      </c>
+      <c r="B22" t="s">
+        <v>633</v>
+      </c>
+      <c r="C22" t="s">
+        <v>599</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>635</v>
+      </c>
+      <c r="B23" t="s">
+        <v>636</v>
+      </c>
+      <c r="C23" t="s">
+        <v>599</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>761</v>
+      </c>
+      <c r="B24" t="s">
+        <v>763</v>
+      </c>
+      <c r="C24" t="s">
+        <v>722</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>-4</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B25" t="s">
+        <v>639</v>
+      </c>
+      <c r="C25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>140</v>
+      </c>
+      <c r="L25">
+        <v>140</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>640</v>
+      </c>
+      <c r="B26" t="s">
+        <v>641</v>
+      </c>
+      <c r="C26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>-2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>643</v>
+      </c>
+      <c r="B27" t="s">
+        <v>644</v>
+      </c>
+      <c r="C27" t="s">
+        <v>599</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>646</v>
+      </c>
+      <c r="B28" t="s">
+        <v>647</v>
+      </c>
+      <c r="C28" t="s">
+        <v>599</v>
+      </c>
+      <c r="D28">
+        <v>-2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>-2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>648</v>
+      </c>
+      <c r="B29" t="s">
+        <v>649</v>
+      </c>
+      <c r="C29" t="s">
+        <v>599</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>650</v>
+      </c>
+      <c r="B30" t="s">
+        <v>651</v>
+      </c>
+      <c r="C30" t="s">
+        <v>599</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>630</v>
+      </c>
+      <c r="B31" t="s">
+        <v>629</v>
+      </c>
+      <c r="C31" t="s">
+        <v>599</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>652</v>
+      </c>
+      <c r="B32" t="s">
+        <v>653</v>
+      </c>
+      <c r="C32" t="s">
+        <v>599</v>
+      </c>
+      <c r="D32">
+        <v>-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>762</v>
+      </c>
+      <c r="B33" t="s">
+        <v>764</v>
+      </c>
+      <c r="C33" t="s">
+        <v>722</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>-4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>-4</v>
+      </c>
+      <c r="I33">
+        <v>-4</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>80</v>
+      </c>
+      <c r="L33">
+        <v>80</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>780</v>
+      </c>
+      <c r="B34" t="s">
+        <v>781</v>
+      </c>
+      <c r="C34" t="s">
+        <v>722</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>-4</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>765</v>
+      </c>
+      <c r="B35" t="s">
+        <v>766</v>
+      </c>
+      <c r="C35" t="s">
+        <v>722</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>-6</v>
+      </c>
+      <c r="H35">
+        <v>-3</v>
+      </c>
+      <c r="I35">
+        <v>-3</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>767</v>
+      </c>
+      <c r="B36" t="s">
+        <v>768</v>
+      </c>
+      <c r="C36" t="s">
+        <v>722</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>-8</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>654</v>
+      </c>
+      <c r="B37" t="s">
+        <v>655</v>
+      </c>
+      <c r="C37" t="s">
+        <v>599</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>656</v>
+      </c>
+      <c r="B38" t="s">
+        <v>657</v>
+      </c>
+      <c r="C38" t="s">
+        <v>599</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>200</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>658</v>
+      </c>
+      <c r="B39" t="s">
+        <v>659</v>
+      </c>
+      <c r="C39" t="s">
+        <v>599</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>-2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>-4</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>582</v>
+      </c>
+      <c r="B40" t="s">
+        <v>583</v>
+      </c>
+      <c r="C40" t="s">
+        <v>573</v>
+      </c>
+      <c r="D40">
+        <v>-2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>-2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>771</v>
+      </c>
+      <c r="B41" t="s">
+        <v>772</v>
+      </c>
+      <c r="C41" t="s">
+        <v>722</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>663</v>
+      </c>
+      <c r="B42" t="s">
+        <v>665</v>
+      </c>
+      <c r="C42" t="s">
+        <v>599</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>661</v>
+      </c>
+      <c r="B43" t="s">
+        <v>662</v>
+      </c>
+      <c r="C43" t="s">
+        <v>599</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>120</v>
+      </c>
+      <c r="L43">
+        <v>120</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>769</v>
+      </c>
+      <c r="B44" t="s">
+        <v>770</v>
+      </c>
+      <c r="C44" t="s">
+        <v>722</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>-1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-6</v>
+      </c>
+      <c r="N44">
+        <v>-4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>666</v>
+      </c>
+      <c r="B45" t="s">
+        <v>667</v>
+      </c>
+      <c r="C45" t="s">
+        <v>599</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>584</v>
+      </c>
+      <c r="B46" t="s">
+        <v>585</v>
+      </c>
+      <c r="C46" t="s">
+        <v>573</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>669</v>
+      </c>
+      <c r="B47" t="s">
+        <v>668</v>
+      </c>
+      <c r="C47" t="s">
+        <v>599</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>-1</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>671</v>
+      </c>
+      <c r="B48" t="s">
+        <v>672</v>
+      </c>
+      <c r="C48" t="s">
+        <v>599</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>673</v>
+      </c>
+      <c r="B49" t="s">
+        <v>674</v>
+      </c>
+      <c r="C49" t="s">
+        <v>599</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>-1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>774</v>
+      </c>
+      <c r="B50" t="s">
+        <v>775</v>
+      </c>
+      <c r="C50" t="s">
+        <v>722</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>676</v>
+      </c>
+      <c r="B51" t="s">
+        <v>677</v>
+      </c>
+      <c r="C51" t="s">
+        <v>599</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>-1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>130</v>
+      </c>
+      <c r="L51">
+        <v>150</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>586</v>
+      </c>
+      <c r="B52" t="s">
+        <v>587</v>
+      </c>
+      <c r="C52" t="s">
+        <v>573</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>-2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>-2</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>678</v>
+      </c>
+      <c r="B53" t="s">
+        <v>679</v>
+      </c>
+      <c r="C53" t="s">
+        <v>599</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>681</v>
+      </c>
+      <c r="B54" t="s">
+        <v>680</v>
+      </c>
+      <c r="C54" t="s">
+        <v>599</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>-2</v>
+      </c>
+      <c r="I54">
+        <v>-2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>683</v>
+      </c>
+      <c r="B55" t="s">
+        <v>684</v>
+      </c>
+      <c r="C55" t="s">
+        <v>599</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>778</v>
+      </c>
+      <c r="B56" t="s">
+        <v>777</v>
+      </c>
+      <c r="C56" t="s">
+        <v>722</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>-2</v>
+      </c>
+      <c r="G56">
+        <v>-2</v>
+      </c>
+      <c r="H56">
+        <v>-2</v>
+      </c>
+      <c r="I56">
+        <v>-2</v>
+      </c>
+      <c r="J56">
+        <v>-10</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>686</v>
+      </c>
+      <c r="B57" t="s">
+        <v>687</v>
+      </c>
+      <c r="C57" t="s">
+        <v>599</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>125</v>
+      </c>
+      <c r="L57">
+        <v>125</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>689</v>
+      </c>
+      <c r="B58" t="s">
+        <v>690</v>
+      </c>
+      <c r="C58" t="s">
+        <v>599</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>-1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>593</v>
+      </c>
+      <c r="B59" t="s">
+        <v>594</v>
+      </c>
+      <c r="C59" t="s">
+        <v>573</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>-2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>691</v>
+      </c>
+      <c r="B60" t="s">
+        <v>692</v>
+      </c>
+      <c r="C60" t="s">
+        <v>599</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>-2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>786</v>
+      </c>
+      <c r="B61" t="s">
+        <v>787</v>
+      </c>
+      <c r="C61" t="s">
+        <v>722</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>694</v>
+      </c>
+      <c r="B62" t="s">
+        <v>695</v>
+      </c>
+      <c r="C62" t="s">
+        <v>599</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>696</v>
+      </c>
+      <c r="B63" t="s">
+        <v>697</v>
+      </c>
+      <c r="C63" t="s">
+        <v>599</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>130</v>
+      </c>
+      <c r="L63">
+        <v>150</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>701</v>
+      </c>
+      <c r="B64" t="s">
+        <v>702</v>
+      </c>
+      <c r="C64" t="s">
+        <v>722</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>698</v>
+      </c>
+      <c r="B65" t="s">
+        <v>700</v>
+      </c>
+      <c r="C65" t="s">
+        <v>722</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>707</v>
+      </c>
+      <c r="B66" t="s">
+        <v>708</v>
+      </c>
+      <c r="C66" t="s">
+        <v>599</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>704</v>
+      </c>
+      <c r="B67" t="s">
+        <v>705</v>
+      </c>
+      <c r="C67" t="s">
+        <v>599</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>709</v>
+      </c>
+      <c r="B68" t="s">
+        <v>710</v>
+      </c>
+      <c r="C68" t="s">
+        <v>599</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>8</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>711</v>
+      </c>
+      <c r="B69" t="s">
+        <v>712</v>
+      </c>
+      <c r="C69" t="s">
+        <v>599</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>-1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>714</v>
+      </c>
+      <c r="B70" t="s">
+        <v>715</v>
+      </c>
+      <c r="C70" t="s">
+        <v>599</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>716</v>
+      </c>
+      <c r="B71" t="s">
+        <v>717</v>
+      </c>
+      <c r="C71" t="s">
+        <v>599</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>-5</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>718</v>
+      </c>
+      <c r="B72" t="s">
+        <v>719</v>
+      </c>
+      <c r="C72" t="s">
+        <v>599</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>-1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>588</v>
+      </c>
+      <c r="B73" t="s">
+        <v>589</v>
+      </c>
+      <c r="C73" t="s">
+        <v>573</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>-6</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>720</v>
+      </c>
+      <c r="B74" t="s">
+        <v>721</v>
+      </c>
+      <c r="C74" t="s">
+        <v>722</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>-2</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>723</v>
+      </c>
+      <c r="B75" t="s">
+        <v>724</v>
+      </c>
+      <c r="C75" t="s">
+        <v>599</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>726</v>
+      </c>
+      <c r="B76" t="s">
+        <v>727</v>
+      </c>
+      <c r="C76" t="s">
+        <v>599</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>783</v>
+      </c>
+      <c r="B77" t="s">
+        <v>784</v>
+      </c>
+      <c r="C77" t="s">
+        <v>722</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>729</v>
+      </c>
+      <c r="B78" t="s">
+        <v>730</v>
+      </c>
+      <c r="C78" t="s">
+        <v>599</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>110</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>731</v>
+      </c>
+      <c r="B79" t="s">
+        <v>732</v>
+      </c>
+      <c r="C79" t="s">
+        <v>599</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>-4</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>-2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>590</v>
+      </c>
+      <c r="B80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C80" t="s">
+        <v>573</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>733</v>
+      </c>
+      <c r="B81" t="s">
+        <v>734</v>
+      </c>
+      <c r="C81" t="s">
+        <v>599</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>738</v>
+      </c>
+      <c r="B82" t="s">
+        <v>739</v>
+      </c>
+      <c r="C82" t="s">
+        <v>599</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>120</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>736</v>
+      </c>
+      <c r="B83" t="s">
+        <v>737</v>
+      </c>
+      <c r="C83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>200</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>740</v>
+      </c>
+      <c r="B84" t="s">
+        <v>741</v>
+      </c>
+      <c r="C84" t="s">
+        <v>599</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>-3</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>742</v>
+      </c>
+      <c r="B85" t="s">
+        <v>743</v>
+      </c>
+      <c r="C85" t="s">
+        <v>599</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>20</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>744</v>
+      </c>
+      <c r="B86" t="s">
+        <v>745</v>
+      </c>
+      <c r="C86" t="s">
+        <v>599</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>746</v>
+      </c>
+      <c r="B87" t="s">
+        <v>747</v>
+      </c>
+      <c r="C87" t="s">
+        <v>599</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>20</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>596</v>
+      </c>
+      <c r="B88" t="s">
+        <v>595</v>
+      </c>
+      <c r="C88" t="s">
+        <v>573</v>
+      </c>
+      <c r="D88">
+        <v>-2</v>
+      </c>
+      <c r="E88">
+        <v>-1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>749</v>
+      </c>
+      <c r="B89" t="s">
+        <v>750</v>
+      </c>
+      <c r="C89" t="s">
+        <v>599</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>789</v>
+      </c>
+      <c r="B90" t="s">
+        <v>790</v>
+      </c>
+      <c r="C90" t="s">
+        <v>722</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>-2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:O91">
+    <sortCondition ref="A70"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RoomsExcelSpreadsheet.xlsx
+++ b/RoomsExcelSpreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RoomsExcelSpreadsheet" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Augmentation" sheetId="3" r:id="rId3"/>
     <sheet name="SettlementBaseMutators" sheetId="4" r:id="rId4"/>
     <sheet name="Qualities" sheetId="5" r:id="rId5"/>
+    <sheet name="Managers" sheetId="6" r:id="rId6"/>
+    <sheet name="Teams" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="roomCSV" localSheetId="2">Augmentation!$A$2:$I$2</definedName>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="902">
   <si>
     <t>Name</t>
   </si>
@@ -2666,6 +2668,339 @@
   </si>
   <si>
     <t>The settlement is built over an area of wild and unpredictable magic. The entire settlement is considered a wild magic area, as described in the planar traits chapter of the Pathfinder Game Mastery Guide. Magical beings and spellcasters tend to avoid this dangerous township.</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Abbot</t>
+  </si>
+  <si>
+    <t>An Abbot is divine spellcaster trained to take care of a Temple or religious organization and its members. She's typically a 3rd-level adept, cleric, druid, or oracle, with light armor (or no armor, if an adept) and a weapon appropriate to her faith.</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>An Accountant maintains financial records and balances an organization's or building's budget. He's typically a 3rd-level expert and not a combatant, though he could be from any skilled class that makes good use of high mental ability scores.</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>A Captain is a master sailor who runs a shipping operation. She's typically a 3rd-level expert, rogue, or fighter. a Captain can be in charge of a mercantile organization, a pirate fleet, or a business that ferries people from port to port.</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>A Doctor is trained to treat all manner of maladies and injuries. He's typically a 3rd-level adept, cleric, druid, or oracle. An expert can make a suitable Doctor, but can heal and treat wounds and diseases with only mundane methods or the use of magic items. a Doctor is typically in charge of a Hospital or organization that provides medical care.</t>
+  </si>
+  <si>
+    <t>Guildmaster (Artisans' Guild)</t>
+  </si>
+  <si>
+    <t>A artisans' Guildmaster is skilled at her art and capable of running a group of like-minded artisans. She's typically a 3rd-level bard, expert, rogue, or member of another skilled class. a Guildmaster handles the day-to-day duties of running an Artisan's Guild: basic administration, educating guild members, and working at her trade.</t>
+  </si>
+  <si>
+    <t>Diplomacy,Heal,Knowledge</t>
+  </si>
+  <si>
+    <t>Appraise,Knowledge,Linguistics,Profession</t>
+  </si>
+  <si>
+    <t>Acrobatics,Diplomacy,Knowledge,Profession</t>
+  </si>
+  <si>
+    <t>Heal,Perception,Sense Motive,Survival</t>
+  </si>
+  <si>
+    <t>Appraise,Craft,Diplomacy,Profession</t>
+  </si>
+  <si>
+    <t>Guildmaster (Thieves' Guild)</t>
+  </si>
+  <si>
+    <t>Appraise,Bluff,Disable Device,Knowledge</t>
+  </si>
+  <si>
+    <t>A thieves' Guildmaster manages a criminal organization. He's typically a 3rd-level bard, cleric, expert, rogue, or sorcerer. a Guildmaster runs the day-to-day operation of a Thieves' Guild: basic administration, training recruits, managing current operations, and devising new schemes.</t>
+  </si>
+  <si>
+    <t>Headmaster</t>
+  </si>
+  <si>
+    <t>Diplomacy,Knowledge,Profession</t>
+  </si>
+  <si>
+    <t>A Headmaster manages a place of learning, such as a Bardic College, Magical Academy, or University. She's typically a 3rd-level alchemist, bard, expert, rogue, sorcerer, wizard, or witch. Running an establishment of higher learning includes basic administration, educating students, and ongoing research.</t>
+  </si>
+  <si>
+    <t>Innkeeper</t>
+  </si>
+  <si>
+    <t>Appraise,Diplomacy,Knowledge,Profession</t>
+  </si>
+  <si>
+    <t>An Innkeeper runs an establishment focused on hospitality. He's typically a 3rd-level commoner or expert, but could also be a retired fighter, rogue, or warrior. An Innkeeper sees to the day-to-day operation of an Inn, Tavern, hotel, restaurant, or exclusive private social club.</t>
+  </si>
+  <si>
+    <t>Lieutenant</t>
+  </si>
+  <si>
+    <t>Diplomacy,Intimidate,Knowledge,Perception</t>
+  </si>
+  <si>
+    <t>A Lieutenant leads a unit containing Guards, mercenaries, or troops. She's typically a 3rd-level cavalier, fighter, or ranger, but could be a barbarian, bard, inquisitor, warrior, or member of any class devoted to martial combat. a Lieutenant manages troops assignments and needs, sees to their training, and participates in military operations.</t>
+  </si>
+  <si>
+    <t>Master Smith</t>
+  </si>
+  <si>
+    <t>Appraise,Craft,Perception,Profession</t>
+  </si>
+  <si>
+    <t>A Master Smith oversees a productive business. He's typically a 3rd-level bard, expert, rogue, or member of another skilled class. a Master Smith runs the day-to-day operations of a production facility devoted to a particular trade, trains apprentices, and works on the more challenging and masterful creations being produced.</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Bluff,Diplomacy,Knowledge,Profession</t>
+  </si>
+  <si>
+    <t>A Partner is a prominent leader in a barrister's office. She's typically a 3rd-level bard, expert, rogue, sorcerer, wizard, or member of another skilled class that depends on mental ability scores. a Partner sees to the organization's legal needs.</t>
+  </si>
+  <si>
+    <t>Sensei</t>
+  </si>
+  <si>
+    <t>Acrobatics,Intimidate,Knowledge,Perception</t>
+  </si>
+  <si>
+    <t>A Sensei heads a Dojo or martial Monastery. He's typically a 3rd-level monk, but could have levels in any martial or Wisdom-based class. A Sensei sees to the training of students and manages day-to-day operations.</t>
+  </si>
+  <si>
+    <t>Smuggler</t>
+  </si>
+  <si>
+    <t>Appraise,Bluff,Knowledge,Sleight of Hand</t>
+  </si>
+  <si>
+    <t>A Smuggler is a merchant accustomed to performing her duties beneath the notice of authorities. She's typically a 3rd-level bard, expert, rogue, or member of any class devoted to subterfuge. A Smuggler might run a Black Market, illegal caravan, or ring of smuggling ships.</t>
+  </si>
+  <si>
+    <t>Stage Manager</t>
+  </si>
+  <si>
+    <t>Diplomacy,Disguise,Perform</t>
+  </si>
+  <si>
+    <t>A Stage Manager oversees an artistic organization or building devoted to the arts. He's typically a 3rd-level expert, but could instead be a bard, rogue, or member of any class with skills suiting the fine arts. A Stage Manager spends his day seeing to the operations of the theater, instructing performers, and promoting featured acts.</t>
+  </si>
+  <si>
+    <t>Steward</t>
+  </si>
+  <si>
+    <t>Diplomacy,Knowledge,Knowledge,Sense Motive</t>
+  </si>
+  <si>
+    <t>A Steward manages a large residential building like a Castle, Mansion, or Noble Villa. She's typically a 3rd-level adept, commoner, or expert. A Steward manages the day-to-day operations of an estate, coordinates the work of the servants and disciplines any whose performance is unsatisfactory, and ensures that the lords and ladies of the house want for nothing.</t>
+  </si>
+  <si>
+    <t>Underboss</t>
+  </si>
+  <si>
+    <t>Appraise,Bluff,Intimidate,Knowledge</t>
+  </si>
+  <si>
+    <t>An Underboss follows the direct orders of a crime boss or anyone running a violent criminal organization. He's typically a 3rd-level bard, cleric, expert, fighter, or rogue. An Underboss follows his superior's orders, maintains the organization's goals, and manages subordinates.</t>
+  </si>
+  <si>
+    <t>Warden</t>
+  </si>
+  <si>
+    <t>Diplomacy,Intimidate,Knowledge,Sense Motive</t>
+  </si>
+  <si>
+    <t>A warden oversees a Jail, dungeon, or other place where people are detained. She's typically a 3rd-level cleric, expert, fighter, inquisitor, warrior, or member of any class suited to combat and guile. a warden sees to the needs of the guards employed within the Jail as well as those of the prisoners', and monitors conditions within the facility.</t>
+  </si>
+  <si>
+    <t>Acolyte</t>
+  </si>
+  <si>
+    <t>Priest,Sage</t>
+  </si>
+  <si>
+    <t>An Acolyte is a newly trained divine spellcaster, sufficient for tending to the sick or advising on religious matters. An Acolyte is typically a 1st-level adept, cleric, druid, or oracle, with light armor (or no armor if an adept) and a weapon appropriate to her faith.</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Mage,Sage</t>
+  </si>
+  <si>
+    <t>An Apprentice is a newly-trained arcane spellcaster, sufficient for helping with magical rituals, generating flashy effects, or advising on magical matters. An Apprentice is typically a 1st-level bard, sorcerer, summoner, witch, or wizard.</t>
+  </si>
+  <si>
+    <t>Archers</t>
+  </si>
+  <si>
+    <t>Soldiers</t>
+  </si>
+  <si>
+    <t>Elite Archers</t>
+  </si>
+  <si>
+    <t>Archers are soldiers trained to use projectile weapons. They are typically 1st-level warriors, each with scale mail, a longbow, a buckler, and a longsword.</t>
+  </si>
+  <si>
+    <t>Bureaucrats</t>
+  </si>
+  <si>
+    <t>Spellcaster</t>
+  </si>
+  <si>
+    <t>Scofflaws,Soldiers</t>
+  </si>
+  <si>
+    <t>Bureaucrats interface with local government and deal with annoying paperwork related to running a business or organization. This type of team could include accountants, diplomats, lawyers, and scribes. a typical bureaucrat is a 1st-, 2nd-, or 3rd-level expert with ranks in Bluff, Diplomacy, Intimidate, Knowledge (local), Linguistics, and Profession (barrister, clerk, or scribe).</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Elite Soldiers,Soldiers</t>
+  </si>
+  <si>
+    <t>Cavalry Archers</t>
+  </si>
+  <si>
+    <t>Cavalry are soldiers trained to ride mounts in combat. They are typically 3rd-level warriors, each equipped with breastplate armor, a longsword, a lance, and a heavy steel shield and riding a combat-trained light horse.</t>
+  </si>
+  <si>
+    <t>Cavalry,Elite Archers</t>
+  </si>
+  <si>
+    <t>Cavalry Archers are soldiers trained to ride mounts and use ranged weapons in combat before closing to melee. They are typically 3rd-level warriors, each equipped with breastplate armor, a short bow, a longsword, a lance, and a heavy steel shield and riding a combat-trained light horse.</t>
+  </si>
+  <si>
+    <t>Craftspeople</t>
+  </si>
+  <si>
+    <t>Craftspeople are trained in a particular Craft or Profession skill and make a living using that skill. Examples of this team are alchemists, carpenters, leatherworkers, masons, and smiths. A typical carpenter is a 4th-level expert with 4 ranks each in Climb, Craft (carpentry), Diplomacy, and Knowledge (engineering and local). Craftspeople in other fields have a similar skill arrangement.</t>
+  </si>
+  <si>
+    <t>Cutpurses</t>
+  </si>
+  <si>
+    <t>Robbers</t>
+  </si>
+  <si>
+    <t>Cutpurses are minor thieves (often youths) who earn money from petty crimes such as pickpocketing or stealing items from market stalls. They are typically 1st-level commoners, experts, or rogues with 1 rank in Perception, Sleight of Hand, and Stealth.</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Laborers</t>
+  </si>
+  <si>
+    <t>Lackeys</t>
+  </si>
+  <si>
+    <t>Drivers are trained to handle and move common animals—managing ox-drawn carts, herding cattle, or training riding horses. a Driver is typically a 1st-level expert with ranks in Handle Animal, Knowledge (geography), Profession (driver), Ride, and Survival.</t>
+  </si>
+  <si>
+    <t>Archers,Elite Soldiers</t>
+  </si>
+  <si>
+    <t>An Elite Archers team consists of 3rd-level warriors, each with scale mail, a longbow, a buckler, and a longsword.</t>
+  </si>
+  <si>
+    <t>Elite Guards</t>
+  </si>
+  <si>
+    <t>Guards</t>
+  </si>
+  <si>
+    <t>Elite Soldiers</t>
+  </si>
+  <si>
+    <t>Like Guards, this team defends a location but doesn't take on an active role. An Elite Guards team consists of 3rd-level warriors, each wearing a chain shirt or banded mail and using a heavy steel shield and shortspear, a guisarme, or a halberd.</t>
+  </si>
+  <si>
+    <t>Like Soldiers, this team will take aggressive action and seek out your enemies to kill them. An Elite Soldiers team consists of 3rd-level warriors, each wearing a chain shirt or banded mail and using a guisarme, a halberd, or a heavy steel shield and a shortspear.</t>
+  </si>
+  <si>
+    <t>Elite Guards,Soldiers</t>
+  </si>
+  <si>
+    <t>Elite Guards, Soldiers</t>
+  </si>
+  <si>
+    <t>Guards train to watch over a person or location and defend that person or location if necessary. Unlike soldiers, guards are not expected to seek out trouble or take an aggressive role. Their purpose is to intimidate casual threats into leaving and defend against active threats. Each guard is typically a 1st-level warrior wearing scale mail and using either a glaive or a heavy wooden shield and shortspear.</t>
+  </si>
+  <si>
+    <t>Drivers,Guards,Lackeys,Sailors,Scofflaws</t>
+  </si>
+  <si>
+    <t>Laborers are unskilled workers who carry out basic orders. In most cases, their work is physical labor, though you may recruit laborers for specialized tasks such as begging for your thieves' guild, being professional mourners for your cult, or filling out the cast of a theater performance. They are typically 1st-level commoners with no ranks in Craft or Profession.</t>
+  </si>
+  <si>
+    <t>Drivers,Laborers</t>
+  </si>
+  <si>
+    <t>Lackeys wait on you hand and foot and take care of common domestic and traveling issues; their ranks include butlers, valets, maids, heralds, footmen, ladies-in-waiting, and similar service personnel. Skilled Lackeys anticipate your needs and coordinate with your other employees as well as those of your guests or host. a typical Lackey is a 1st-level commoner or expert with ranks in a subset of Diplomacy, Disguise, Intimidate, Knowledge (local), Knowledge (nobility), Linguistics, Perception, and Sense Motive.</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>A Mage is a skilled but not especially remarkable arcane spellcaster, often a 3rd-level bard, sorcerer, summoner, witch, or wizard.</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>A Priest is a skilled but unremarkable divine spellcaster, typically a 3rd-level adept, cleric, druid, or oracle, with light armor (or no armor, if an adept) and a weapon appropriate to her faith.</t>
+  </si>
+  <si>
+    <t>Robbers are expert thieves who commit burglary, robbery, and other violent crimes for profit. a typical robber is a 3rd-level expert or rogue with 3 ranks each in Climb, Disable Device, Intimidate, Perception, and Stealth.</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Acolyte,Apprentice</t>
+  </si>
+  <si>
+    <t>A sage is a person with extensive knowledge in one or more related areas who can advise you about his areas of expertise. A typical sage is a 3rd-level expert with 3 ranks each in skills such as Appraise, Knowledge, Linguistics, Profession, and Spellcraft.</t>
+  </si>
+  <si>
+    <t>Sailors</t>
+  </si>
+  <si>
+    <t>Sailors know how to sail a ship, navigate while at sea, and defend the vessel against pirates and other hostile boarders. A typical sailor is a 2nd-level expert with 2 ranks each in Acrobatics, Climb, Perception, Profession (sailor), Survival, and Swim.</t>
+  </si>
+  <si>
+    <t>Scofflaws</t>
+  </si>
+  <si>
+    <t>Buereaucrats</t>
+  </si>
+  <si>
+    <t>Scofflaws provide illegal but consensual services such as gambling, moonshining, or underground fighting. Note that other kinds of teams might perform these services (you could recruit a Laborers team to work as prostitutes or a Guards team to run an arena, for example), but this kind of team is skilled at these tasks.</t>
+  </si>
+  <si>
+    <t>Archers,Bureaucrats,Cavalry,Elite Soldiers</t>
+  </si>
+  <si>
+    <t>Soldiers are trained in combat and have the means and will to kill your enemies. Unlike Guards, Soldiers actively engage in fighting on behest of a leader (although you can make Soldiers act as Guards). Depending on the nature of your organization, they might be enforcers rather than military-style soldiers. They are typically 1st-level warriors, each with scale mail, a longsword, a heavy wooden shield, and javelins.</t>
   </si>
 </sst>
 </file>
@@ -3050,7 +3385,7 @@
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8049,14 +8384,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC79"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="21" width="9.140625" customWidth="1"/>
+    <col min="4" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" customWidth="1"/>
     <col min="24" max="26" width="9.140625" customWidth="1"/>
@@ -15541,8 +15877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19793,4 +20129,1650 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>805</v>
+      </c>
+      <c r="D4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>807</v>
+      </c>
+      <c r="D6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>809</v>
+      </c>
+      <c r="D7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>812</v>
+      </c>
+      <c r="D8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D9" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>817</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>818</v>
+      </c>
+      <c r="D10" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>821</v>
+      </c>
+      <c r="D11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>823</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>824</v>
+      </c>
+      <c r="D12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>826</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>827</v>
+      </c>
+      <c r="D13" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>829</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>830</v>
+      </c>
+      <c r="D14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>832</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>833</v>
+      </c>
+      <c r="D15" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>835</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>836</v>
+      </c>
+      <c r="D16" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>839</v>
+      </c>
+      <c r="D17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>841</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>842</v>
+      </c>
+      <c r="D18" t="s">
+        <v>843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I2">
+        <v>440</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>845</v>
+      </c>
+      <c r="S2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>855</v>
+      </c>
+      <c r="I3">
+        <v>520</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>848</v>
+      </c>
+      <c r="S3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>310</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>851</v>
+      </c>
+      <c r="R4" t="s">
+        <v>852</v>
+      </c>
+      <c r="S4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>856</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>410</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>859</v>
+      </c>
+      <c r="R6" t="s">
+        <v>860</v>
+      </c>
+      <c r="S6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>860</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>470</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>862</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>866</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>110</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>867</v>
+      </c>
+      <c r="S9" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>869</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>870</v>
+      </c>
+      <c r="R10" t="s">
+        <v>871</v>
+      </c>
+      <c r="S10" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>380</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>873</v>
+      </c>
+      <c r="R11" t="s">
+        <v>860</v>
+      </c>
+      <c r="S11" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>875</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>170</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>876</v>
+      </c>
+      <c r="R12" t="s">
+        <v>877</v>
+      </c>
+      <c r="S12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>877</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>330</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>880</v>
+      </c>
+      <c r="R13" t="s">
+        <v>862</v>
+      </c>
+      <c r="S13" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>876</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>870</v>
+      </c>
+      <c r="R14" t="s">
+        <v>881</v>
+      </c>
+      <c r="S14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>870</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>883</v>
+      </c>
+      <c r="S15" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>871</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>120</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>885</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>887</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>855</v>
+      </c>
+      <c r="I17">
+        <v>960</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>847</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>889</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>855</v>
+      </c>
+      <c r="I18">
+        <v>810</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>844</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>867</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>866</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>892</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>893</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>895</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>870</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>897</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>130</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>870</v>
+      </c>
+      <c r="R22" t="s">
+        <v>898</v>
+      </c>
+      <c r="S22" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>851</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>220</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>876</v>
+      </c>
+      <c r="R23" t="s">
+        <v>900</v>
+      </c>
+      <c r="S23" t="s">
+        <v>901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RoomsExcelSpreadsheet.xlsx
+++ b/RoomsExcelSpreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RoomsExcelSpreadsheet" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Qualities" sheetId="5" r:id="rId5"/>
     <sheet name="Managers" sheetId="6" r:id="rId6"/>
     <sheet name="Teams" sheetId="7" r:id="rId7"/>
+    <sheet name="OrganizationsCSV" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="roomCSV" localSheetId="2">Augmentation!$A$2:$I$2</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="954">
   <si>
     <t>Name</t>
   </si>
@@ -3002,12 +3003,168 @@
   <si>
     <t>Soldiers are trained in combat and have the means and will to kill your enemies. Unlike Guards, Soldiers actively engage in fighting on behest of a leader (although you can make Soldiers act as Guards). Depending on the nature of your organization, they might be enforcers rather than military-style soldiers. They are typically 1st-level warriors, each with scale mail, a longsword, a heavy wooden shield, and javelins.</t>
   </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Artisans' Guild</t>
+  </si>
+  <si>
+    <t>Artisans and assistants who create quality goods.</t>
+  </si>
+  <si>
+    <t>1 Bureaucrat,2 Craftspeople,2 Laborers</t>
+  </si>
+  <si>
+    <t>Bounty Hunters</t>
+  </si>
+  <si>
+    <t>1 Archers,1 Bureaucrats,1 Driver</t>
+  </si>
+  <si>
+    <t>Fighters trained to find and capture criminals and escapees.</t>
+  </si>
+  <si>
+    <t>Brute Squad</t>
+  </si>
+  <si>
+    <t>A gang of well-armed professionals who throw their weight around on your behalf.</t>
+  </si>
+  <si>
+    <t>1 Robbers,2 Soldiers</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>A study group of peers and apprentices devoted to arcane mysteries and research</t>
+  </si>
+  <si>
+    <t>4 Apprentice,1 Mage,1 Sage</t>
+  </si>
+  <si>
+    <t>Caravan Crew</t>
+  </si>
+  <si>
+    <t>Travelers skilled in loading, transporting and unloading trade goods from animals, wagons and ships</t>
+  </si>
+  <si>
+    <t>2 Driver,1 Guards,1 Laborers</t>
+  </si>
+  <si>
+    <t>Cult</t>
+  </si>
+  <si>
+    <t>A splinter religion or secret society that believes yours is the true faith</t>
+  </si>
+  <si>
+    <t>4 Acolyte,2 Guards,1 Priest</t>
+  </si>
+  <si>
+    <t>Entourage</t>
+  </si>
+  <si>
+    <t>Friends and toadies who take care of your eating, sleeping, travel and entertainment arrangements</t>
+  </si>
+  <si>
+    <t>1 Bureaucrat,1 Driver,2 Lackeys</t>
+  </si>
+  <si>
+    <t>Fight Club</t>
+  </si>
+  <si>
+    <t>A possibly illegal association of boxing adicionados</t>
+  </si>
+  <si>
+    <t>1 Driver,1 Guards,1 Laborers,1 Lackeys,1 Scofflaws</t>
+  </si>
+  <si>
+    <t>Hunting Party</t>
+  </si>
+  <si>
+    <t>The necessary guides and assistants for sport hunting</t>
+  </si>
+  <si>
+    <t>1 Archers,1 Laborers,1 Lackeys</t>
+  </si>
+  <si>
+    <t>Mercenary Company</t>
+  </si>
+  <si>
+    <t>A well-armed group of warriors who are loyal to you, and who are paid to guard or fight</t>
+  </si>
+  <si>
+    <t>1 Elite Archers,2 Elite Soldiers,1 Priest</t>
+  </si>
+  <si>
+    <t>Ship Crew</t>
+  </si>
+  <si>
+    <t>The crew of a small sailing vessel</t>
+  </si>
+  <si>
+    <t>1 Laborers,1 Sailors</t>
+  </si>
+  <si>
+    <t>Theater Company</t>
+  </si>
+  <si>
+    <t>Performers, Set Dressers and Costumers for an acting troupe or similar group</t>
+  </si>
+  <si>
+    <t>5 Apprentice,1 Bureaucrat,1 Craftspeople,1 Laborers</t>
+  </si>
+  <si>
+    <t>Medical Team</t>
+  </si>
+  <si>
+    <t>A skilled team of healers and their assistants</t>
+  </si>
+  <si>
+    <t>1 Bureaucrat,2 Priest,1 Sage</t>
+  </si>
+  <si>
+    <t>A skilled team of researchers to provide advice on a variety of subjects</t>
+  </si>
+  <si>
+    <t>2 Apprentice, 3 Sage, 1 Mage, 1 Priest</t>
+  </si>
+  <si>
+    <t>Thieves Guild</t>
+  </si>
+  <si>
+    <t>A band of criminals and thugs who commit illegal acts</t>
+  </si>
+  <si>
+    <t>2 Cutpurses,1 Robbers,1 Scofflaws,1 Soldiers</t>
+  </si>
+  <si>
+    <t>Vagabonds</t>
+  </si>
+  <si>
+    <t>Unsavory wanderers skilled at stage magic, fortunetelling, rigged games and snake oil.</t>
+  </si>
+  <si>
+    <t>1 Acolyte,1 Apprentice,1 Cutpurse,2 Driver,1 Guards,1 Laborers,1 Scofflaws</t>
+  </si>
+  <si>
+    <t>Archivists</t>
+  </si>
+  <si>
+    <t>Farmhands</t>
+  </si>
+  <si>
+    <t>A team of farmhands to handle any agricultural need.</t>
+  </si>
+  <si>
+    <t>2 Driver,4 Laborers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3045,6 +3202,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3067,11 +3231,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8384,15 +8551,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="20" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="4" max="21" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" customWidth="1"/>
     <col min="24" max="26" width="9.140625" customWidth="1"/>
@@ -20136,7 +20302,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20408,8 +20574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21775,4 +21941,223 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B5" t="s">
+        <v>910</v>
+      </c>
+      <c r="C5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>912</v>
+      </c>
+      <c r="B6" t="s">
+        <v>913</v>
+      </c>
+      <c r="C6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>915</v>
+      </c>
+      <c r="B7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B8" t="s">
+        <v>919</v>
+      </c>
+      <c r="C8" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>921</v>
+      </c>
+      <c r="B9" t="s">
+        <v>922</v>
+      </c>
+      <c r="C9" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>951</v>
+      </c>
+      <c r="B10" t="s">
+        <v>952</v>
+      </c>
+      <c r="C10" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>928</v>
+      </c>
+      <c r="C12" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B13" t="s">
+        <v>940</v>
+      </c>
+      <c r="C13" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>930</v>
+      </c>
+      <c r="B14" t="s">
+        <v>931</v>
+      </c>
+      <c r="C14" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>933</v>
+      </c>
+      <c r="B15" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>936</v>
+      </c>
+      <c r="B16" t="s">
+        <v>937</v>
+      </c>
+      <c r="C16" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>944</v>
+      </c>
+      <c r="B17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C17" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>947</v>
+      </c>
+      <c r="B18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C18" t="s">
+        <v>949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>